--- a/tex/grafi.xlsx
+++ b/tex/grafi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>1 rpi</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Izmerjeni časi: 1 datoteka, različne velikosti datoteke</t>
+  </si>
+  <si>
+    <t>Razlićno število datotek</t>
+  </si>
+  <si>
+    <t>Ne bom uporabil, ker je usseless</t>
+  </si>
+  <si>
+    <t>pretočnost</t>
+  </si>
+  <si>
+    <t>TODO check</t>
   </si>
 </sst>
 </file>
@@ -269,31 +281,69 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="56611584"/>
-        <c:axId val="56605696"/>
+        <c:axId val="107107072"/>
+        <c:axId val="107108608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56611584"/>
+        <c:axId val="107107072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Število datotek</a:t>
+                </a:r>
+                <a:endParaRPr lang="sl-SI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56605696"/>
+        <c:crossAx val="107108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56605696"/>
+        <c:axId val="107108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Čas zahtebka (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="sl-SI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56611584"/>
+        <c:crossAx val="107107072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -306,7 +356,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -491,23 +541,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69649152"/>
-        <c:axId val="69630208"/>
+        <c:axId val="107133952"/>
+        <c:axId val="107135744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69649152"/>
+        <c:axId val="107133952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69630208"/>
+        <c:crossAx val="107135744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69630208"/>
+        <c:axId val="107135744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +565,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69649152"/>
+        <c:crossAx val="107133952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -528,7 +578,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -713,23 +763,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70613632"/>
-        <c:axId val="70612096"/>
+        <c:axId val="107038208"/>
+        <c:axId val="107039744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70613632"/>
+        <c:axId val="107038208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70612096"/>
+        <c:crossAx val="107039744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70612096"/>
+        <c:axId val="107039744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +787,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70613632"/>
+        <c:crossAx val="107038208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -750,7 +800,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -935,23 +985,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="104191104"/>
-        <c:axId val="104189312"/>
+        <c:axId val="107352064"/>
+        <c:axId val="107353600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104191104"/>
+        <c:axId val="107352064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104189312"/>
+        <c:crossAx val="107353600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104189312"/>
+        <c:axId val="107353600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +1009,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104191104"/>
+        <c:crossAx val="107352064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -972,7 +1022,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1157,23 +1207,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69684224"/>
-        <c:axId val="59980800"/>
+        <c:axId val="107387136"/>
+        <c:axId val="107397120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69684224"/>
+        <c:axId val="107387136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59980800"/>
+        <c:crossAx val="107397120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59980800"/>
+        <c:axId val="107397120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1231,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69684224"/>
+        <c:crossAx val="107387136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,7 +1244,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1380,25 +1430,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91436160"/>
-        <c:axId val="107944192"/>
+        <c:axId val="107492096"/>
+        <c:axId val="107493632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91436160"/>
+        <c:axId val="107492096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107944192"/>
+        <c:crossAx val="107493632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107944192"/>
+        <c:axId val="107493632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1456,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91436160"/>
+        <c:crossAx val="107492096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1419,7 +1469,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1429,16 +1479,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1897,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1912,6 +1962,9 @@
       </c>
     </row>
     <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -2095,6 +2148,9 @@
       </c>
     </row>
     <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
       <c r="C34">
         <v>1</v>
       </c>
@@ -2318,6 +2374,9 @@
       </c>
     </row>
     <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
@@ -2569,6 +2628,9 @@
       </c>
     </row>
     <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
       <c r="C78">
         <v>1</v>
       </c>

--- a/tex/grafi.xlsx
+++ b/tex/grafi.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="List2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="List3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="List2" sheetId="2" r:id="rId2"/>
+    <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Izmerjeni časi izvajanja celotnega zahtevka: datoteka dolga 5s, različno število datotek v zahtevku</t>
   </si>
@@ -49,10 +48,10 @@
     <t>pretočnost</t>
   </si>
   <si>
-    <t>      </t>
+    <t/>
   </si>
   <si>
-    <t>     </t>
+    <t/>
   </si>
   <si>
     <t>Izmerjen čas računananja FFT v sekundah: 1 datoteka, različne velikosti datoteke</t>
@@ -72,52 +71,24 @@
   <si>
     <t>Izmerjeni časi: 1 datoteka, različne velikosti datoteke</t>
   </si>
+  <si>
+    <t>i5IzvajanjeFft</t>
+  </si>
+  <si>
+    <t>dolžinaDatotek</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +100,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -137,45 +108,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -234,6 +177,14 @@
       <rgbColor rgb="FFC0504D"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -241,13 +192,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="sl-SI"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -263,12 +213,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -307,18 +254,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.4266666666667</c:v>
+                  <c:v>21.426666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.493333333333</c:v>
+                  <c:v>103.49333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.306666666667</c:v>
+                  <c:v>210.30666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -335,12 +281,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="be4b48"/>
+                <a:srgbClr val="BE4B48"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -379,18 +322,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.8866666666667</c:v>
+                  <c:v>13.886666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135.48</c:v>
+                  <c:v>135.47999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -407,12 +349,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:srgbClr val="98B855"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -451,28 +390,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.7966666666667</c:v>
+                  <c:v>10.796666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.7233333333333</c:v>
+                  <c:v>55.723333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.9566666666667</c:v>
+                  <c:v>96.956666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72668174"/>
-        <c:axId val="46310581"/>
+        <c:axId val="84590976"/>
+        <c:axId val="84593664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72668174"/>
+        <c:axId val="84590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -484,7 +421,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000">
+                  <a:rPr lang="sl-SI" sz="1000" b="1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -497,8 +434,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -508,15 +444,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46310581"/>
+        <c:crossAx val="84593664"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46310581"/>
+        <c:axId val="84593664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -538,7 +474,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000">
+                  <a:rPr lang="sl-SI" sz="1000" b="1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -551,8 +487,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -562,12 +497,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72668174"/>
+        <c:crossAx val="84590976"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -576,7 +512,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -588,24 +524,28 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="sl-SI"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -621,12 +561,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -668,21 +605,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.136666666666667</c:v>
+                  <c:v>0.13666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.01666666666667</c:v>
+                  <c:v>4.0166666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -699,12 +635,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="be4b48"/>
+                <a:srgbClr val="BE4B48"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -746,21 +679,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.453333333333333</c:v>
+                  <c:v>0.45333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.91333333333333</c:v>
+                  <c:v>3.9133333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -777,12 +709,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:srgbClr val="98B855"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -827,31 +756,28 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.473333333333333</c:v>
+                  <c:v>0.47333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.08333333333333</c:v>
+                  <c:v>1.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.01333333333333</c:v>
+                  <c:v>4.0133333333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27636768"/>
-        <c:axId val="71901288"/>
+        <c:axId val="83386368"/>
+        <c:axId val="83388288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27636768"/>
+        <c:axId val="83386368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -861,15 +787,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71901288"/>
+        <c:crossAx val="83388288"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71901288"/>
+        <c:axId val="83388288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -881,8 +807,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -892,12 +817,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27636768"/>
+        <c:crossAx val="83386368"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -906,7 +832,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -918,24 +844,28 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="sl-SI"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -951,12 +881,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -998,21 +925,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10459.6666666667</c:v>
+                  <c:v>10459.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18917.3333333333</c:v>
+                  <c:v>18917.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20355.3333333333</c:v>
+                  <c:v>20355.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14748.3333333333</c:v>
+                  <c:v>14748.333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1029,12 +955,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="be4b48"/>
+                <a:srgbClr val="BE4B48"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1076,13 +999,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13729.6666666667</c:v>
+                  <c:v>13729.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31999.3333333333</c:v>
+                  <c:v>31999.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38652.3333333333</c:v>
+                  <c:v>38652.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29680</c:v>
@@ -1090,7 +1013,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1107,12 +1029,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:srgbClr val="98B855"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1154,13 +1073,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17306.6666666667</c:v>
+                  <c:v>17306.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>46599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70322.6666666667</c:v>
+                  <c:v>70322.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>57292</c:v>
@@ -1168,20 +1087,17 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80852968"/>
-        <c:axId val="52556012"/>
+        <c:axId val="83421440"/>
+        <c:axId val="84550016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80852968"/>
+        <c:axId val="83421440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1191,15 +1107,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52556012"/>
+        <c:crossAx val="84550016"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52556012"/>
+        <c:axId val="84550016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1211,8 +1127,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1222,12 +1137,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80852968"/>
+        <c:crossAx val="83421440"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1236,7 +1152,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1248,24 +1164,28 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="sl-SI"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1281,12 +1201,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1328,21 +1245,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.70666666666667</c:v>
+                  <c:v>4.7066666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.92</c:v>
+                  <c:v>18.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.2966666666667</c:v>
+                  <c:v>81.296666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>350.556666666667</c:v>
+                  <c:v>350.55666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1359,12 +1275,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="be4b48"/>
+                <a:srgbClr val="BE4B48"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1406,21 +1319,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.14333333333333</c:v>
+                  <c:v>2.1433333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.37</c:v>
+                  <c:v>9.3699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.2666666666667</c:v>
+                  <c:v>40.266666666666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170.223333333333</c:v>
+                  <c:v>170.22333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1437,12 +1349,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:srgbClr val="98B855"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1484,13 +1393,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.618</c:v>
+                  <c:v>4.6179999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.6643333333333</c:v>
+                  <c:v>19.664333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>83.99</c:v>
@@ -1498,20 +1407,17 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13954038"/>
-        <c:axId val="62766221"/>
+        <c:axId val="116228864"/>
+        <c:axId val="116230784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13954038"/>
+        <c:axId val="116228864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1521,15 +1427,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62766221"/>
+        <c:crossAx val="116230784"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62766221"/>
+        <c:axId val="116230784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1541,8 +1447,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1552,12 +1457,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13954038"/>
+        <c:crossAx val="116228864"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1566,7 +1472,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1578,24 +1484,28 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="sl-SI"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1610,26 +1520,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>List1!$I$99:$L$99</c:f>
@@ -1658,21 +1548,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.09666666666667</c:v>
+                  <c:v>1.0966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.72333333333333</c:v>
+                  <c:v>4.7233333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.65</c:v>
+                  <c:v>19.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.65</c:v>
+                  <c:v>86.649999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1688,26 +1577,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="be4b48"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>List1!$I$99:$L$99</c:f>
@@ -1736,21 +1605,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.693333333333333</c:v>
+                  <c:v>0.69333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.8866666666667</c:v>
+                  <c:v>11.886666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.4266666666667</c:v>
+                  <c:v>49.426666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1766,26 +1634,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="98b855"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>List1!$I$99:$L$99</c:f>
@@ -1814,118 +1662,72 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.456666666666667</c:v>
+                  <c:v>0.45666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.82333333333333</c:v>
+                  <c:v>1.8233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.55333333333333</c:v>
+                  <c:v>7.5533333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.3133333333333</c:v>
+                  <c:v>32.313333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37292737"/>
-        <c:axId val="25138691"/>
+        <c:axId val="116263936"/>
+        <c:axId val="116270208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37292737"/>
+        <c:axId val="116263936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="25138691"/>
+        <c:crossAx val="116270208"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25138691"/>
+        <c:axId val="116270208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="37292737"/>
+        <c:crossAx val="116263936"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="sl-SI"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1940,25 +1742,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>List1!$I$120:$L$120</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1972,30 +1760,30 @@
                 <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>List1!$I$121:$L$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.35666666666667</c:v>
+                  <c:v>6.3566666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.4266666666667</c:v>
+                  <c:v>21.426666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.6866666666667</c:v>
+                  <c:v>85.686666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>361.803333333333</c:v>
+                  <c:v>361.80333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2011,25 +1799,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>List1!$I$120:$L$120</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2043,30 +1817,30 @@
                 <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>List1!$I$122:$L$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.23333333333333</c:v>
+                  <c:v>5.2333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8866666666667</c:v>
+                  <c:v>13.886666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.3433333333333</c:v>
+                  <c:v>47.343333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>179.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2082,25 +1856,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>List1!$I$120:$L$120</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2114,125 +1874,113 @@
                 <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>List1!$I$123:$L$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.97</c:v>
+                  <c:v>8.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.7966666666667</c:v>
+                  <c:v>10.796666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.8333333333333</c:v>
+                  <c:v>27.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.9866666666667</c:v>
+                  <c:v>94.986666666666679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="47344168"/>
-        <c:axId val="72780766"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="47344168"/>
+        <c:axId val="129673856"/>
+        <c:axId val="116323072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="129673856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dolžina datoteke</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="72780766"/>
+        <c:crossAx val="116323072"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="72780766"/>
+        <c:axId val="116323072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Čas obdelave</a:t>
+                </a:r>
+                <a:endParaRPr lang="sl-SI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="47344168"/>
+        <c:crossAx val="129673856"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2246,14 +1994,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Grafikon 1"/>
+        <xdr:cNvPr id="2" name="Grafikon 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5676120" y="1191240"/>
-        <a:ext cx="5375160" cy="3266280"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2276,14 +2024,14 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Grafikon 3"/>
+        <xdr:cNvPr id="0" name="Grafikon 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6597000" y="7210800"/>
-        <a:ext cx="4622400" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2306,14 +2054,14 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafikon 4"/>
+        <xdr:cNvPr id="3" name="Grafikon 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7136640" y="11373120"/>
-        <a:ext cx="4616280" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2336,14 +2084,14 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafikon 5"/>
+        <xdr:cNvPr id="4" name="Grafikon 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6473160" y="15459480"/>
-        <a:ext cx="4616280" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2366,14 +2114,14 @@
       <xdr:row>117</xdr:row>
       <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafikon 6"/>
+        <xdr:cNvPr id="5" name="Grafikon 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6247800" y="19517400"/>
-        <a:ext cx="4622400" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2386,24 +2134,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>379440</xdr:colOff>
+      <xdr:colOff>322290</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>59564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafikon 7"/>
+        <xdr:cNvPr id="6" name="Grafikon 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6635160" y="23488920"/>
-        <a:ext cx="4622400" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2416,1418 +2164,1679 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+  <a:themeElements>
+    <a:clrScheme name="Pisarna">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pisarna">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pisarna">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="36.28515625"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+    <row r="3" spans="1:10">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>21.85</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>102.38</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>208.68</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">AVERAGE(C3:C5)</f>
-        <v>21.4266666666667</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <f aca="false">AVERAGE(D3:D5)</f>
-        <v>103.493333333333</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <f aca="false">AVERAGE(E3:E5)</f>
-        <v>210.306666666667</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="n">
+      <c r="H3">
+        <f>AVERAGE(C3:C5)</f>
+        <v>21.426666666666666</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(D3:D5)</f>
+        <v>103.49333333333334</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(E3:E5)</f>
+        <v>210.30666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4">
         <v>20.7</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>104.35</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>203.89</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">AVERAGE(C7:C9)</f>
-        <v>13.8866666666667</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">AVERAGE(D7:D9)</f>
+      <c r="H4">
+        <f>AVERAGE(C7:C9)</f>
+        <v>13.886666666666665</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(D7:D9)</f>
         <v>70.94</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <f aca="false">AVERAGE(E7:E9)</f>
-        <v>135.48</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="n">
+      <c r="J4">
+        <f>AVERAGE(E7:E9)</f>
+        <v>135.47999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5">
         <v>21.73</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>103.75</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>218.35</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">AVERAGE(C11:C13)</f>
-        <v>10.7966666666667</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">AVERAGE(D11:D13)</f>
-        <v>55.7233333333333</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">AVERAGE(E11:E13)</f>
-        <v>96.9566666666667</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="H5">
+        <f>AVERAGE(C11:C13)</f>
+        <v>10.796666666666667</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(D11:D13)</f>
+        <v>55.723333333333336</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(E11:E13)</f>
+        <v>96.956666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>14.5</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>70.95</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>126.58</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="1:10">
+      <c r="C8">
         <v>14.08</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>70.32</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>150.61</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+      <c r="D8">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="E8">
+        <v>150.61000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9">
         <v>13.08</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>71.55</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>129.25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="1:10">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>10.67</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>55.44</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>98.99</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="1:10">
+      <c r="C12">
         <v>10.66</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>55.93</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>95.94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="1:10">
+      <c r="C13">
         <v>11.06</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>55.8</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>95.94</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>20</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>60</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34">
         <v>5</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>20</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34">
         <v>60</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
+    <row r="35" spans="1:12">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>0.17</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="D35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E35">
         <v>1.57</v>
       </c>
-      <c r="F35" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H35" s="0" t="s">
+      <c r="F35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H35" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="0" t="n">
-        <f aca="false">AVERAGE(C35:C37)</f>
-        <v>0.136666666666667</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <f aca="false">AVERAGE(D35:D37)</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <f aca="false">AVERAGE(E35:E37)</f>
+      <c r="I35">
+        <f>AVERAGE(C35:C37)</f>
+        <v>0.13666666666666669</v>
+      </c>
+      <c r="J35">
+        <f>AVERAGE(D35:D37)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K35">
+        <f>AVERAGE(E35:E37)</f>
         <v>1.3</v>
       </c>
-      <c r="L35" s="0" t="n">
-        <f aca="false">AVERAGE(F35:F37)</f>
-        <v>4.01666666666667</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
+      <c r="L35">
+        <f>AVERAGE(F35:F37)</f>
+        <v>4.0166666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="C36">
         <v>0.12</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>0.36</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>1.24</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>3.83</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="0" t="n">
-        <f aca="false">AVERAGE(C39:C41)</f>
-        <v>0.133333333333333</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <f aca="false">AVERAGE(D39:D41)</f>
-        <v>0.453333333333333</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <f aca="false">AVERAGE(E39:E41)</f>
+      <c r="I36">
+        <f>AVERAGE(C39:C41)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE(D39:D41)</f>
+        <v>0.45333333333333337</v>
+      </c>
+      <c r="K36">
+        <f>AVERAGE(E39:E41)</f>
         <v>1.29</v>
       </c>
-      <c r="L36" s="0" t="n">
-        <f aca="false">AVERAGE(F39:F41)</f>
-        <v>3.91333333333333</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
+      <c r="L36">
+        <f>AVERAGE(F39:F41)</f>
+        <v>3.9133333333333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="C37">
         <v>0.12</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>0.35</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F37" s="0" t="n">
+      <c r="E37">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F37">
         <v>3.82</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <f aca="false">AVERAGE(C43:C45)</f>
+      <c r="I37">
+        <f>AVERAGE(C43:C45)</f>
         <v>0.11</v>
       </c>
-      <c r="J37" s="0" t="n">
-        <f aca="false">AVERAGE(D43:D45)</f>
-        <v>0.473333333333333</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <f aca="false">AVERAGE(E43:E45)</f>
-        <v>1.08333333333333</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <f aca="false">AVERAGE(F43:F45)</f>
-        <v>4.01333333333333</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="n">
+      <c r="J37">
+        <f>AVERAGE(D43:D45)</f>
+        <v>0.47333333333333333</v>
+      </c>
+      <c r="K37">
+        <f>AVERAGE(E43:E45)</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="L37">
+        <f>AVERAGE(F43:F45)</f>
+        <v>4.0133333333333328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>0.13</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>0.34</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>1.28</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>3.79</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="n">
+    <row r="40" spans="1:12">
+      <c r="C40">
         <v>0.12</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>0.34</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>1.47</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>4.16</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="n">
+    <row r="41" spans="1:12">
+      <c r="C41">
         <v>0.15</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>0.68</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F41" s="0" t="n">
+      <c r="E41">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F41">
         <v>3.79</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="n">
+    <row r="43" spans="1:12">
+      <c r="B43">
         <v>4</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>0.11</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>0.37</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F43" s="0" t="n">
+      <c r="E43">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F43">
         <v>4.28</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="n">
+    <row r="44" spans="1:12">
+      <c r="C44">
         <v>0.1</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>0.69</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>1.04</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>3.88</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="n">
+    <row r="45" spans="1:12">
+      <c r="C45">
         <v>0.12</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>0.36</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F45" s="0" t="n">
+      <c r="E45">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F45">
         <v>3.88</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>20</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56">
         <v>60</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56">
         <v>5</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56">
         <v>20</v>
       </c>
-      <c r="L56" s="0" t="n">
+      <c r="L56">
         <v>60</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="n">
+    <row r="57" spans="1:12">
+      <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>9636</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>19781</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>20137</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57">
         <v>14434</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" t="s">
         <v>2</v>
       </c>
-      <c r="I57" s="0" t="n">
-        <f aca="false">AVERAGE(C57:C59)</f>
-        <v>10459.6666666667</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <f aca="false">AVERAGE(D57:D59)</f>
-        <v>18917.3333333333</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <f aca="false">AVERAGE(E57:E59)</f>
-        <v>20355.3333333333</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <f aca="false">AVERAGE(F57:F59)</f>
-        <v>14748.3333333333</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="n">
+      <c r="I57">
+        <f>AVERAGE(C57:C59)</f>
+        <v>10459.666666666666</v>
+      </c>
+      <c r="J57">
+        <f>AVERAGE(D57:D59)</f>
+        <v>18917.333333333332</v>
+      </c>
+      <c r="K57">
+        <f>AVERAGE(E57:E59)</f>
+        <v>20355.333333333332</v>
+      </c>
+      <c r="L57">
+        <f>AVERAGE(F57:F59)</f>
+        <v>14748.333333333334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="C58">
         <v>10871</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>18099</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>20684</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58">
         <v>14948</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="0" t="n">
-        <f aca="false">AVERAGE(C61:C63)</f>
-        <v>13729.6666666667</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <f aca="false">AVERAGE(D61:D63)</f>
-        <v>31999.3333333333</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <f aca="false">AVERAGE(E61:E63)</f>
-        <v>38652.3333333333</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <f aca="false">AVERAGE(F61:F63)</f>
+      <c r="I58">
+        <f>AVERAGE(C61:C63)</f>
+        <v>13729.666666666666</v>
+      </c>
+      <c r="J58">
+        <f>AVERAGE(D61:D63)</f>
+        <v>31999.333333333332</v>
+      </c>
+      <c r="K58">
+        <f>AVERAGE(E61:E63)</f>
+        <v>38652.333333333336</v>
+      </c>
+      <c r="L58">
+        <f>AVERAGE(F61:F63)</f>
         <v>29680</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="n">
+    <row r="59" spans="1:12">
+      <c r="C59">
         <v>10872</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>18872</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>20245</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59">
         <v>14863</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="0" t="n">
-        <f aca="false">AVERAGE(C65:C67)</f>
-        <v>17306.6666666667</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <f aca="false">AVERAGE(D65:D67)</f>
+      <c r="I59">
+        <f>AVERAGE(C65:C67)</f>
+        <v>17306.666666666668</v>
+      </c>
+      <c r="J59">
+        <f>AVERAGE(D65:D67)</f>
         <v>46599</v>
       </c>
-      <c r="K59" s="0" t="n">
-        <f aca="false">AVERAGE(E65:E67)</f>
-        <v>70322.6666666667</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <f aca="false">AVERAGE(F65:F67)</f>
+      <c r="K59">
+        <f>AVERAGE(E65:E67)</f>
+        <v>70322.666666666672</v>
+      </c>
+      <c r="L59">
+        <f>AVERAGE(F65:F67)</f>
         <v>57292</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="0" t="s">
+    <row r="60" spans="1:12">
+      <c r="C60" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="n">
+    <row r="61" spans="1:12">
+      <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>14429</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>33045</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>38939</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61">
         <v>30263</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="n">
+    <row r="62" spans="1:12">
+      <c r="C62">
         <v>12404</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>30738</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>37932</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62">
         <v>29522</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0" t="n">
+    <row r="63" spans="1:12">
+      <c r="C63">
         <v>14356</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>32215</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>39086</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63">
         <v>29255</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0" t="s">
+    <row r="64" spans="1:12">
+      <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="n">
+    <row r="65" spans="1:12">
+      <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>17298</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>47105</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>70233</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65">
         <v>57326</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="n">
+    <row r="66" spans="1:12">
+      <c r="C66">
         <v>17392</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>45511</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>70452</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>56347</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="n">
+    <row r="67" spans="1:12">
+      <c r="C67">
         <v>17230</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>47181</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>70283</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67">
         <v>58203</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="0" t="n">
+    <row r="78" spans="1:12">
+      <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>5</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>20</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78">
         <v>60</v>
       </c>
-      <c r="I78" s="0" t="n">
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78" s="0" t="n">
+      <c r="J78">
         <v>5</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="K78">
         <v>20</v>
       </c>
-      <c r="L78" s="0" t="n">
+      <c r="L78">
         <v>60</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="n">
+    <row r="79" spans="1:12">
+      <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>4.71</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>18.16</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>82.15</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79">
         <v>357.95</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" t="s">
         <v>2</v>
       </c>
-      <c r="I79" s="0" t="n">
-        <f aca="false">AVERAGE(C79:C81)</f>
-        <v>4.70666666666667</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <f aca="false">AVERAGE(D79:D81)</f>
-        <v>18.92</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <f aca="false">AVERAGE(E79:E81)</f>
-        <v>81.2966666666667</v>
-      </c>
-      <c r="L79" s="0" t="n">
-        <f aca="false">AVERAGE(F79:F81)</f>
-        <v>350.556666666667</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="0" t="n">
+      <c r="I79">
+        <f>AVERAGE(C79:C81)</f>
+        <v>4.7066666666666661</v>
+      </c>
+      <c r="J79">
+        <f>AVERAGE(D79:D81)</f>
+        <v>18.919999999999998</v>
+      </c>
+      <c r="K79">
+        <f>AVERAGE(E79:E81)</f>
+        <v>81.296666666666667</v>
+      </c>
+      <c r="L79">
+        <f>AVERAGE(F79:F81)</f>
+        <v>350.55666666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="C80">
         <v>5.15</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>18.7</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>79.56</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80">
         <v>345.43</v>
       </c>
-      <c r="H80" s="0" t="s">
+      <c r="H80" t="s">
         <v>3</v>
       </c>
-      <c r="I80" s="0" t="n">
-        <f aca="false">AVERAGE(C83:C85)</f>
-        <v>2.14333333333333</v>
-      </c>
-      <c r="J80" s="0" t="n">
-        <f aca="false">AVERAGE(D83:D85)</f>
-        <v>9.37</v>
-      </c>
-      <c r="K80" s="0" t="n">
-        <f aca="false">AVERAGE(E83:E85)</f>
-        <v>40.2666666666667</v>
-      </c>
-      <c r="L80" s="0" t="n">
-        <f aca="false">AVERAGE(F83:F85)</f>
-        <v>170.223333333333</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="n">
+      <c r="I80">
+        <f>AVERAGE(C83:C85)</f>
+        <v>2.1433333333333335</v>
+      </c>
+      <c r="J80">
+        <f>AVERAGE(D83:D85)</f>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="K80">
+        <f>AVERAGE(E83:E85)</f>
+        <v>40.266666666666673</v>
+      </c>
+      <c r="L80">
+        <f>AVERAGE(F83:F85)</f>
+        <v>170.22333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="C81">
         <v>4.26</v>
       </c>
-      <c r="D81" s="0" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E81" s="0" t="n">
+      <c r="D81">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E81">
         <v>82.18</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81">
         <v>348.29</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="H81" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="0" t="n">
-        <f aca="false">AVERAGE(C87:C89)</f>
-        <v>1.1</v>
-      </c>
-      <c r="J81" s="0" t="n">
-        <f aca="false">AVERAGE(D87:D89)</f>
-        <v>4.618</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <f aca="false">AVERAGE(E87:E89)</f>
-        <v>19.6643333333333</v>
-      </c>
-      <c r="L81" s="0" t="n">
-        <f aca="false">AVERAGE(F87:F89)</f>
+      <c r="I81">
+        <f>AVERAGE(C87:C89)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J81">
+        <f>AVERAGE(D87:D89)</f>
+        <v>4.6179999999999994</v>
+      </c>
+      <c r="K81">
+        <f>AVERAGE(E87:E89)</f>
+        <v>19.664333333333332</v>
+      </c>
+      <c r="L81">
+        <f>AVERAGE(F87:F89)</f>
         <v>83.99</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="n">
+    <row r="83" spans="2:12">
+      <c r="B83">
         <v>2</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>2.16</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>9.23</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>39.93</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83">
         <v>166.33</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="0" t="n">
+    <row r="84" spans="2:12">
+      <c r="C84">
         <v>2.15</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>9.64</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>41.16</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84">
         <v>171.19</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="0" t="n">
+    <row r="85" spans="2:12">
+      <c r="C85">
         <v>2.12</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>9.24</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>39.71</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85">
         <v>173.15</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="n">
+    <row r="87" spans="2:12">
+      <c r="B87">
         <v>4</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>1.129</v>
       </c>
-      <c r="D87" s="0" t="n">
-        <v>4.644</v>
-      </c>
-      <c r="E87" s="0" t="n">
-        <v>19.543</v>
-      </c>
-      <c r="F87" s="0" t="n">
+      <c r="D87">
+        <v>4.6440000000000001</v>
+      </c>
+      <c r="E87">
+        <v>19.542999999999999</v>
+      </c>
+      <c r="F87">
         <v>84.26</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="0" t="n">
-        <v>1.106</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>4.542</v>
-      </c>
-      <c r="E88" s="0" t="n">
+    <row r="88" spans="2:12">
+      <c r="C88">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="D88">
+        <v>4.5419999999999998</v>
+      </c>
+      <c r="E88">
         <v>19.98</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88">
         <v>85.31</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="n">
-        <v>1.065</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>4.668</v>
-      </c>
-      <c r="E89" s="0" t="n">
+    <row r="89" spans="2:12">
+      <c r="C89">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="D89">
+        <v>4.6680000000000001</v>
+      </c>
+      <c r="E89">
         <v>19.47</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89">
         <v>82.4</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="0" t="n">
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>5</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>20</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99">
         <v>60</v>
       </c>
-      <c r="I99" s="0" t="n">
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99" s="0" t="n">
+      <c r="J99">
         <v>5</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="K99">
         <v>20</v>
       </c>
-      <c r="L99" s="0" t="n">
+      <c r="L99">
         <v>60</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="n">
+    <row r="100" spans="1:12">
+      <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D100" s="0" t="n">
+      <c r="C100">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D100">
         <v>4.84</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>21.56</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100">
         <v>86.54</v>
       </c>
-      <c r="H100" s="0" t="s">
+      <c r="H100" t="s">
         <v>14</v>
       </c>
-      <c r="I100" s="0" t="n">
-        <f aca="false">AVERAGE(C100:C102)</f>
-        <v>1.09666666666667</v>
-      </c>
-      <c r="J100" s="0" t="n">
-        <f aca="false">AVERAGE(D100:D102)</f>
-        <v>4.72333333333333</v>
-      </c>
-      <c r="K100" s="0" t="n">
-        <f aca="false">AVERAGE(E100:E102)</f>
-        <v>19.65</v>
-      </c>
-      <c r="L100" s="0" t="n">
-        <f aca="false">AVERAGE(F100:F102)</f>
-        <v>86.65</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="0" t="n">
+      <c r="I100">
+        <f>AVERAGE(C100:C102)</f>
+        <v>1.0966666666666667</v>
+      </c>
+      <c r="J100">
+        <f>AVERAGE(D100:D102)</f>
+        <v>4.7233333333333336</v>
+      </c>
+      <c r="K100">
+        <f>AVERAGE(E100:E102)</f>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="L100">
+        <f>AVERAGE(F100:F102)</f>
+        <v>86.649999999999991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="C101">
         <v>1.07</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>4.76</v>
       </c>
-      <c r="E101" s="0" t="n">
-        <v>19.74</v>
-      </c>
-      <c r="F101" s="0" t="n">
+      <c r="E101">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="F101">
         <v>86.91</v>
       </c>
-      <c r="H101" s="0" t="s">
+      <c r="H101" t="s">
         <v>15</v>
       </c>
-      <c r="I101" s="0" t="n">
-        <f aca="false">AVERAGE(C104:C106)</f>
-        <v>0.693333333333333</v>
-      </c>
-      <c r="J101" s="0" t="n">
-        <f aca="false">AVERAGE(D104:D106)</f>
+      <c r="I101">
+        <f>AVERAGE(C104:C106)</f>
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="J101">
+        <f>AVERAGE(D104:D106)</f>
         <v>2.9</v>
       </c>
-      <c r="K101" s="0" t="n">
-        <f aca="false">AVERAGE(E104:E106)</f>
-        <v>11.8866666666667</v>
-      </c>
-      <c r="L101" s="0" t="n">
-        <f aca="false">AVERAGE(F104:F106)</f>
-        <v>49.4266666666667</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="0" t="n">
+      <c r="K101">
+        <f>AVERAGE(E104:E106)</f>
+        <v>11.886666666666665</v>
+      </c>
+      <c r="L101">
+        <f>AVERAGE(F104:F106)</f>
+        <v>49.426666666666669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="C102">
         <v>1.07</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>4.57</v>
       </c>
-      <c r="E102" s="0" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="F102" s="0" t="n">
+      <c r="E102">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="F102">
         <v>86.5</v>
       </c>
-      <c r="H102" s="0" t="s">
+      <c r="H102" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="0" t="n">
-        <f aca="false">AVERAGE(C108:C110)</f>
-        <v>0.456666666666667</v>
-      </c>
-      <c r="J102" s="0" t="n">
-        <f aca="false">AVERAGE(D108:D110)</f>
-        <v>1.82333333333333</v>
-      </c>
-      <c r="K102" s="0" t="n">
-        <f aca="false">AVERAGE(E108:E110)</f>
-        <v>7.55333333333333</v>
-      </c>
-      <c r="L102" s="0" t="n">
-        <f aca="false">AVERAGE(F108:F110)</f>
-        <v>32.3133333333333</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="n">
+      <c r="I102">
+        <f>AVERAGE(C108:C110)</f>
+        <v>0.45666666666666661</v>
+      </c>
+      <c r="J102">
+        <f>AVERAGE(D108:D110)</f>
+        <v>1.8233333333333333</v>
+      </c>
+      <c r="K102">
+        <f>AVERAGE(E108:E110)</f>
+        <v>7.5533333333333337</v>
+      </c>
+      <c r="L102">
+        <f>AVERAGE(F108:F110)</f>
+        <v>32.313333333333333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="B104">
         <v>2</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>0.79</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>3.33</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>12.89</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104">
         <v>50.69</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="0" t="n">
+    <row r="105" spans="1:12">
+      <c r="C105">
         <v>0.63</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>2.63</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>11.51</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105">
         <v>49.31</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="0" t="n">
+    <row r="106" spans="1:12">
+      <c r="C106">
         <v>0.66</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>2.74</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>11.26</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106">
         <v>48.28</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="n">
+    <row r="108" spans="1:12">
+      <c r="B108">
         <v>4</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>0.5</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>1.87</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>7.85</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108">
         <v>33.92</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="0" t="n">
+    <row r="109" spans="1:12">
+      <c r="C109">
         <v>0.41</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>1.76</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>7.38</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109">
         <v>31.56</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="0" t="n">
+    <row r="110" spans="1:12">
+      <c r="C110">
         <v>0.46</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>1.84</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>7.43</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110">
         <v>31.46</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="0" t="n">
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120">
         <v>1</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120">
         <v>5</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120">
         <v>20</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120">
         <v>60</v>
       </c>
-      <c r="I120" s="0" t="n">
+      <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120" s="0" t="n">
+      <c r="J120">
         <v>5</v>
       </c>
-      <c r="K120" s="0" t="n">
+      <c r="K120">
         <v>20</v>
       </c>
-      <c r="L120" s="0" t="n">
+      <c r="L120">
         <v>60</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="n">
+    <row r="121" spans="1:12">
+      <c r="B121">
         <v>1</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121">
         <v>6.36</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121">
         <v>21.85</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121">
         <v>86.11</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121">
         <v>359.54</v>
       </c>
-      <c r="H121" s="0" t="n">
+      <c r="H121">
         <v>1</v>
       </c>
-      <c r="I121" s="0" t="n">
-        <f aca="false">AVERAGE(C121:C123)</f>
-        <v>6.35666666666667</v>
-      </c>
-      <c r="J121" s="0" t="n">
-        <f aca="false">AVERAGE(D121:D123)</f>
-        <v>21.4266666666667</v>
-      </c>
-      <c r="K121" s="0" t="n">
-        <f aca="false">AVERAGE(E121:E123)</f>
-        <v>85.6866666666667</v>
-      </c>
-      <c r="L121" s="0" t="n">
-        <f aca="false">AVERAGE(F121:F123)</f>
-        <v>361.803333333333</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="0" t="n">
+      <c r="I121">
+        <f>AVERAGE(C121:C123)</f>
+        <v>6.3566666666666665</v>
+      </c>
+      <c r="J121">
+        <f>AVERAGE(D121:D123)</f>
+        <v>21.426666666666666</v>
+      </c>
+      <c r="K121">
+        <f>AVERAGE(E121:E123)</f>
+        <v>85.686666666666667</v>
+      </c>
+      <c r="L121">
+        <f>AVERAGE(F121:F123)</f>
+        <v>361.80333333333334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="C122">
         <v>6.23</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122">
         <v>20.7</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122">
         <v>85.98</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122">
         <v>361.9</v>
       </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122">
         <v>2</v>
       </c>
-      <c r="I122" s="0" t="n">
-        <f aca="false">AVERAGE(C125:C127)</f>
-        <v>5.23333333333333</v>
-      </c>
-      <c r="J122" s="0" t="n">
-        <f aca="false">AVERAGE(D125:D127)</f>
-        <v>13.8866666666667</v>
-      </c>
-      <c r="K122" s="0" t="n">
-        <f aca="false">AVERAGE(E125:E127)</f>
-        <v>47.3433333333333</v>
-      </c>
-      <c r="L122" s="0" t="n">
-        <f aca="false">AVERAGE(F125:F127)</f>
+      <c r="I122">
+        <f>AVERAGE(C125:C127)</f>
+        <v>5.2333333333333334</v>
+      </c>
+      <c r="J122">
+        <f>AVERAGE(D125:D127)</f>
+        <v>13.886666666666665</v>
+      </c>
+      <c r="K122">
+        <f>AVERAGE(E125:E127)</f>
+        <v>47.343333333333334</v>
+      </c>
+      <c r="L122">
+        <f>AVERAGE(F125:F127)</f>
         <v>179.38</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="0" t="n">
+    <row r="123" spans="1:12">
+      <c r="C123">
         <v>6.48</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123">
         <v>21.73</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123">
         <v>84.97</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123">
         <v>363.97</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H123">
         <v>4</v>
       </c>
-      <c r="I123" s="0" t="n">
-        <f aca="false">AVERAGE(C129:C131)</f>
-        <v>8.97</v>
-      </c>
-      <c r="J123" s="0" t="n">
-        <f aca="false">AVERAGE(D129:D131)</f>
-        <v>10.7966666666667</v>
-      </c>
-      <c r="K123" s="0" t="n">
-        <f aca="false">AVERAGE(E129:E131)</f>
-        <v>27.8333333333333</v>
-      </c>
-      <c r="L123" s="0" t="n">
-        <f aca="false">AVERAGE(F129:F131)</f>
-        <v>94.9866666666667</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="n">
+      <c r="I123">
+        <f>AVERAGE(C129:C131)</f>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="J123">
+        <f>AVERAGE(D129:D131)</f>
+        <v>10.796666666666667</v>
+      </c>
+      <c r="K123">
+        <f>AVERAGE(E129:E131)</f>
+        <v>27.833333333333332</v>
+      </c>
+      <c r="L123">
+        <f>AVERAGE(F129:F131)</f>
+        <v>94.986666666666679</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125">
         <v>5.27</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125">
         <v>14.5</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125">
         <v>44.69</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125">
         <v>179.31</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="0" t="n">
+    <row r="126" spans="1:12">
+      <c r="C126">
         <v>5.23</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126">
         <v>14.08</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126">
         <v>48.99</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126">
         <v>179.84</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="0" t="n">
+    <row r="127" spans="1:12">
+      <c r="C127">
         <v>5.2</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127">
         <v>13.08</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127">
         <v>48.35</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127">
         <v>178.99</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="n">
+    <row r="129" spans="2:6">
+      <c r="B129">
         <v>4</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129">
         <v>8.26</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>10.67</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129">
         <v>27.85</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129">
         <v>94.49</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="0" t="n">
+    <row r="130" spans="2:6">
+      <c r="C130">
         <v>9.31</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130">
         <v>10.66</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130">
         <v>28.5</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130">
         <v>93.18</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="0" t="n">
+    <row r="131" spans="2:6">
+      <c r="C131">
         <v>9.34</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131">
         <v>11.06</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131">
         <v>27.15</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131">
         <v>97.29</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/tex/grafi.xlsx
+++ b/tex/grafi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Izmerjeni časi izvajanja celotnega zahtevka: datoteka dolga 5s, različno število datotek v zahtevku</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>dolžinaDatotek</t>
+  </si>
+  <si>
+    <t>mpiOverMany</t>
+  </si>
+  <si>
+    <t>Časi porazdelitve datotek po gruči</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 rpi </t>
   </si>
 </sst>
 </file>
@@ -402,11 +411,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84590976"/>
-        <c:axId val="84593664"/>
+        <c:axId val="88461696"/>
+        <c:axId val="88464384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84590976"/>
+        <c:axId val="88461696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +441,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -444,12 +452,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84593664"/>
+        <c:crossAx val="88464384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84593664"/>
+        <c:axId val="88464384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +493,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -497,7 +504,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84590976"/>
+        <c:crossAx val="88461696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -512,7 +519,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -532,7 +538,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -768,11 +774,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83386368"/>
-        <c:axId val="83388288"/>
+        <c:axId val="88104960"/>
+        <c:axId val="88106880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83386368"/>
+        <c:axId val="88104960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,12 +793,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83388288"/>
+        <c:crossAx val="88106880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83388288"/>
+        <c:axId val="88106880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +823,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83386368"/>
+        <c:crossAx val="88104960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -832,7 +838,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -852,7 +857,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1088,11 +1093,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83421440"/>
-        <c:axId val="84550016"/>
+        <c:axId val="88144128"/>
+        <c:axId val="88420736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83421440"/>
+        <c:axId val="88144128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,12 +1112,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84550016"/>
+        <c:crossAx val="88420736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84550016"/>
+        <c:axId val="88420736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1142,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83421440"/>
+        <c:crossAx val="88144128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1152,7 +1157,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1172,7 +1176,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1408,11 +1412,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="116228864"/>
-        <c:axId val="116230784"/>
+        <c:axId val="88511232"/>
+        <c:axId val="88513152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116228864"/>
+        <c:axId val="88511232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,12 +1431,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="116230784"/>
+        <c:crossAx val="88513152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116230784"/>
+        <c:axId val="88513152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1461,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="116228864"/>
+        <c:crossAx val="88511232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1472,7 +1476,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1492,7 +1495,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1677,23 +1680,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="116263936"/>
-        <c:axId val="116270208"/>
+        <c:axId val="90508672"/>
+        <c:axId val="90518656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116263936"/>
+        <c:axId val="90508672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116270208"/>
+        <c:crossAx val="90518656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116270208"/>
+        <c:axId val="90518656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1704,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116263936"/>
+        <c:crossAx val="90508672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1714,7 +1717,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1899,11 +1902,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="129673856"/>
-        <c:axId val="116323072"/>
+        <c:axId val="90552192"/>
+        <c:axId val="90562560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129673856"/>
+        <c:axId val="90552192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,12 +1931,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116323072"/>
+        <c:crossAx val="90562560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116323072"/>
+        <c:axId val="90562560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,9 +1963,244 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129673856"/>
+        <c:crossAx val="90552192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sl-SI"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$H$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 rpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$I$147:$J$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$I$148:$J$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.4333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.766666666666667E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$H$149</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 rpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$I$147:$J$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$I$149:$J$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.54633333333333345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1133333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$H$150</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 rpi </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$I$147:$J$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$I$150:$J$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.82233333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6533333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="129011712"/>
+        <c:axId val="62057472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="129011712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Število</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> datotek</a:t>
+                </a:r>
+                <a:endParaRPr lang="sl-SI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62057472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62057472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Čas porazdelitve</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="sl-SI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129011712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2026,7 +2264,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Grafikon 3"/>
+        <xdr:cNvPr id="3" name="Grafikon 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2056,7 +2294,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafikon 4"/>
+        <xdr:cNvPr id="4" name="Grafikon 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2086,7 +2324,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafikon 5"/>
+        <xdr:cNvPr id="5" name="Grafikon 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2116,7 +2354,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafikon 6"/>
+        <xdr:cNvPr id="6" name="Grafikon 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2146,7 +2384,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafikon 7"/>
+        <xdr:cNvPr id="7" name="Grafikon 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2156,6 +2394,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafikon 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2449,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3800,6 +4068,142 @@
       </c>
       <c r="F131">
         <v>97.29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D148">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H148" t="s">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <f>AVERAGE(C148:C150)</f>
+        <v>2.4333333333333335E-2</v>
+      </c>
+      <c r="J148">
+        <f>AVERAGE(D148:D150)</f>
+        <v>4.766666666666667E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="C149">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D149">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>3</v>
+      </c>
+      <c r="I149">
+        <f>AVERAGE(C152:C154)</f>
+        <v>0.54633333333333345</v>
+      </c>
+      <c r="J149">
+        <f>AVERAGE(D152:D154)</f>
+        <v>1.1133333333333333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="C150">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D150">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H150" t="s">
+        <v>22</v>
+      </c>
+      <c r="I150">
+        <f>AVERAGE(C156:C158)</f>
+        <v>0.82233333333333336</v>
+      </c>
+      <c r="J150">
+        <f>AVERAGE(D156:D158)</f>
+        <v>1.6533333333333331</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D152">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="C153">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D153">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="C154">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D154">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D156">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="C157">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D157">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="C158">
+        <v>0.81</v>
+      </c>
+      <c r="D158">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
